--- a/doc/测试文档/运动打卡测试.xlsx
+++ b/doc/测试文档/运动打卡测试.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\测试文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C08494A-FF0D-4E3E-ADF1-B2B07CDF9A6A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="训练营提现测试" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>用例描述</t>
   </si>
@@ -104,10 +98,6 @@
   <si>
     <t>1、提交成功后“创建成功”改为“打卡成功”
 2、打卡成功进入打卡详情页面后，左上角返回“打卡主页”，其他页面进入还是按上一步返回跳转</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -378,14 +368,209 @@
   </si>
   <si>
     <t>不通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已是会员</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡主页-&gt;运动打卡-&gt;创建打卡页《运动类型选择：1、训练-选择自填则运动项目为空自填）2、比赛-列表为自己所参加的已完成的比赛》《选择社群（可不选）社群列表为自己所在的社群（包含社群名称和打卡币）》</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>台式机谷歌浏览器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入打卡详情页面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡详情-&gt;评论</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡详情页面底部
+产生一条评论记录（同一会员可以重复评论）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡详情-&gt;打赏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建社群</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口打卡主页-&gt;社群</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>社群列表-&gt;创建社群-&gt;创建社群页面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、punch表产生一条打卡记录（有选择社群的情况下的总打卡金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stakes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值，没有选择社群则为0）。2、提交的社群数组包含（group,group_id,member,member_id,pool,pool_id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>group表产生一条社群记录（社群列表我的社群显示此条记录）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理社群</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口社群详情右上角</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑社群（1、踢出成员-&gt;弹出会员列表，可以多选成员，点击删除按钮直接删除成员。2、添加成员-&gt;提示前往社群详情页面右上角分享链接给好友）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可增删成员、修改各项信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建奖金池</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口社群详情-&gt;奖金池</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ho哥提的需求--添加成员修改成弹出平台我关注的会员列表，选择会员进行添加（可多选）。常规需求-踢出成员操作成员列表api需显示不包含自己在内</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool表产生一条记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金池列表-&gt;创建奖金池（创建的奖金池以一段时间界限，创建后不可编辑）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间区间不能小于7天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡-打赏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡-评论</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入社群</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口社群详情-&gt;加入按钮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_apply表产生一条status=1（申请中）的数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击加入，提交申请成功提示“申请加入成功，待管理员审核”；重复申请提示“请不要重复申请”；社群群主申请列表显示一条申请记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请回复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口社群编辑底部申请列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请列表滑动操作回复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、同意：列表状态由未回复变成已回复；2、拒绝：列表状态由未回复变成拒绝；</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,8 +636,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,18 +665,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFD8C2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -790,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,22 +1004,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,6 +1086,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1227,20 +1398,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
@@ -1249,133 +1420,133 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="29" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="29" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="99" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="99">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -1415,10 +1586,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
@@ -1430,72 +1601,72 @@
         <v>24</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="17">
+        <v>45</v>
+      </c>
+      <c r="J11" s="13">
         <v>43251</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="50.1" customHeight="1">
       <c r="A12" s="5">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>43251</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="50.1" customHeight="1">
       <c r="A13" s="5">
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>43251</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="99" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="99">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1504,58 +1675,58 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <v>43251</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="50.1" customHeight="1">
       <c r="A15" s="5">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <v>43251</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="50.1" customHeight="1">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1566,16 +1737,16 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>43251</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="50.1" customHeight="1">
       <c r="A17" s="7">
         <v>4</v>
       </c>
@@ -1589,159 +1760,291 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="119.25" customHeight="1">
       <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="39">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50.1" customHeight="1">
       <c r="A19" s="7">
         <v>6</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+      <c r="H19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="39">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+      <c r="B20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="39">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A21" s="7">
         <v>8</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+      <c r="B21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="39">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A22" s="7">
         <v>9</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="39">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="68.25" customHeight="1">
+      <c r="A23" s="7">
         <v>10</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="39">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="99" customHeight="1">
+      <c r="A24" s="7">
         <v>11</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+      <c r="B24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="39">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A25" s="7">
         <v>12</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
+      <c r="B25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="39">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A26" s="9">
         <v>13</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A27" s="9">
         <v>14</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A28" s="11">
         <v>15</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1762,12 +2065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
